--- a/result/test for local 1.xlsx
+++ b/result/test for local 1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -964,108 +964,108 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>You've decided to attempt a heist of the world's most famous painting from the Louvre in Paris. A lofty goal but one which could secure your place in the history books - or in a cell!</v>
+        <v>Get 3 or more Art Heist icons to advance to the 'Pick a Forgery' Bonus Round.</v>
       </c>
       <c r="B41" t="str">
-        <v>Та Парисын Лувраас дэлхийн хамгийн алдартай уран зургийг хулгайлах оролдлого хийхээр шийдсэн. Таныг түүхийн номонд бичих - аль эсвэл шоронд хийх шийдэмгий зорилго!</v>
+        <v>Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
       </c>
       <c r="C41" t="str">
-        <v/>
+        <v>3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай, 'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд.</v>
       </c>
       <c r="D41" t="str">
-        <v/>
+        <v>Reordered the sentence to match the original meaning and structure.</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>THE BEACH!</v>
+        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
       </c>
       <c r="B42" t="str">
-        <v>ДАЛАЙН ЭРЭГ!</v>
+        <v>Хуурамч бүтээлийг сонгоод өөрийгөө гудамжны дээрэмчнээс илүү гэдгээ баталж чадвал зурагтаа тохирох худалдан авагч олох болно.</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>Хуурамч бүтээлийг сонгоод өөрийгөө гудамжны дээрэмчнээс илүү гэдгээ баталж чадвал зурагтаа тохирох худалдан авагч олох болно.</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>No correction needed.</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Sit back and enjoy...</v>
+        <v>To aid Remy &amp; Raoul you will need to do five things:</v>
       </c>
       <c r="B43" t="str">
-        <v>Тайван сууж сайхан өнгөрүүлээрэй...</v>
+        <v>Реми, Раул хоёрт туслахын тулд дараах таван зүйлийг хийх хэрэгтэй:</v>
       </c>
       <c r="C43" t="str">
-        <v/>
+        <v>Реми, Раул хоёрт туслахын тулд дараах таван зүйлийг хийх хэрэгтэй:</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>No correction needed.</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>You've made it to the beach!</v>
+        <v>But Remy and Raoul don't give up easily. Try another heist!</v>
       </c>
       <c r="B44" t="str">
-        <v>Та далайн эрэгт хүрч ирлээ!</v>
+        <v>Гэхдээ Реми, Раул хоёр тийм ч амархан бууж өгдөггүй. Өөр хулгай хийж үзээрэй!</v>
       </c>
       <c r="C44" t="str">
-        <v/>
+        <v>Гэхдээ Реми, Раул хоёр тийм ч амархан бууж өгдөггүй. Өөр хулгай хийж үзээрэй!</v>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>No correction needed.</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>And a Big Sack of Cash</v>
+        <v>REEL CRIME: Art Heist.</v>
       </c>
       <c r="B45" t="str">
-        <v>Мөн том шуудай мөнгө</v>
+        <v>REEL CRIME: Урлагийн бүтээлийн хулгай.</v>
       </c>
       <c r="C45" t="str">
-        <v/>
+        <v>REEL CRIME: Урлагийн бүтээлийн хулгай.</v>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>No correction needed.</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>(The Black Market)</v>
+        <v>Get 3 or more Art Heist icons to trigger the 'Find your Painting' Bonus round.</v>
       </c>
       <c r="B46" t="str">
-        <v>(Хар зах)</v>
+        <v>'Уран зургаа олох' бонус үеийг идэвхжүүлэх бол 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг олж аваарай.</v>
       </c>
       <c r="C46" t="str">
-        <v/>
+        <v>3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг олж аваарай, 'Уран зургаа олох' бонус үеийг идэвхжүүлэх бол.</v>
       </c>
       <c r="D46" t="str">
-        <v/>
+        <v>Reordered the sentence to match the original meaning and structure.</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Road Bloque!</v>
+        <v>At least 4 of any of the Scatter Masterpiece paintings anywhere on the reels will begin a heist for that painting!  The Masterpiece paintings have a purple background.</v>
       </c>
       <c r="B47" t="str">
-        <v>Замын хаалт!</v>
+        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно!  Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
       </c>
       <c r="C47" t="str">
-        <v/>
+        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно!  Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
       </c>
       <c r="D47" t="str">
-        <v/>
+        <v>No correction needed.</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Keep an eye out for Art Heist bonuses!</v>
+        <v>You've decided to attempt a heist of the world's most famous painting from the Louvre in Paris. A lofty goal but one which could secure your place in the history books - or in a cell!</v>
       </c>
       <c r="B48" t="str">
-        <v>Урлагийн бүтээлийн хулгайн урамшууллыг анхааралтай ажиглаарай!</v>
+        <v>Та Парисын Лувраас дэлхийн хамгийн алдартай уран зургийг хулгайлах оролдлого хийхээр шийдсэн. Таныг түүхийн номонд бичих - аль эсвэл шоронд хийх шийдэмгий зорилго!</v>
       </c>
       <c r="C48" t="str">
         <v/>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Play for FUN</v>
+        <v>THE BEACH!</v>
       </c>
       <c r="B49" t="str">
-        <v>ЗУГААТАЙ тоглох</v>
+        <v>ДАЛАЙН ЭРЭГ!</v>
       </c>
       <c r="C49" t="str">
         <v/>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Play for REAL</v>
+        <v>Sit back and enjoy...</v>
       </c>
       <c r="B50" t="str">
-        <v>БОДИТООР тоглох</v>
+        <v>Тайван сууж сайхан өнгөрүүлээрэй...</v>
       </c>
       <c r="C50" t="str">
         <v/>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Mission Implausible</v>
+        <v>You've made it to the beach!</v>
       </c>
       <c r="B51" t="str">
-        <v>Итгэмээргүй даалгавар</v>
+        <v>Та далайн эрэг хүрч ирлээ!</v>
       </c>
       <c r="C51" t="str">
         <v/>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Run Raoul Run</v>
+        <v>And a Big Sack of Cash</v>
       </c>
       <c r="B52" t="str">
-        <v>Гүйгээрэй Раул гүйгээрэй</v>
+        <v>Мөн том шуудай мөнгө</v>
       </c>
       <c r="C52" t="str">
         <v/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Monsieur Moneybags</v>
+        <v>(The Black Market)</v>
       </c>
       <c r="B53" t="str">
-        <v>Мөнгөтэй эрхэм</v>
+        <v>(Хар зах)</v>
       </c>
       <c r="C53" t="str">
         <v/>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Unhappy Hooker</v>
+        <v>Road Bloque!</v>
       </c>
       <c r="B54" t="str">
-        <v>Аз жаргалгүй биеэ үнэлэгч</v>
+        <v>Замын хаалт!</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>The Duke Drops In</v>
+        <v>Keep an eye out for Art Heist bonuses!</v>
       </c>
       <c r="B55" t="str">
-        <v>Гүн унагах</v>
+        <v>Урлагийн бүтээлийн хулгайн урамшууллыг анхааралтай ажиглаарай!</v>
       </c>
       <c r="C55" t="str">
         <v/>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Me Tarzan You Gone!</v>
+        <v>Play for FUN</v>
       </c>
       <c r="B56" t="str">
-        <v>Би Тарзан чи яв!</v>
+        <v>ЗУГААТАЙ тоглох</v>
       </c>
       <c r="C56" t="str">
         <v/>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mona Remy</v>
+        <v>Play for REAL</v>
       </c>
       <c r="B57" t="str">
-        <v>Мона Реми</v>
+        <v>БОДИТООР тоглох</v>
       </c>
       <c r="C57" t="str">
         <v/>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Run Remy Run</v>
+        <v>Mission Implausible</v>
       </c>
       <c r="B58" t="str">
-        <v>Гүйгээрэй Реми гүйгээрэй</v>
+        <v>Итгэмээргүй даалгавар</v>
       </c>
       <c r="C58" t="str">
         <v/>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>He Ain't Heavy</v>
+        <v>Run Raoul Run</v>
       </c>
       <c r="B59" t="str">
-        <v>Тэр хүнд биш</v>
+        <v>Гүйгээрэй Раул гүйгээрэй</v>
       </c>
       <c r="C59" t="str">
         <v/>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>A Bad Trip</v>
+        <v>Monsieur Moneybags</v>
       </c>
       <c r="B60" t="str">
-        <v>Таагүй аялал</v>
+        <v>Мөнгөтэй эрхэм</v>
       </c>
       <c r="C60" t="str">
         <v/>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Chariot du Paddy</v>
+        <v>Unhappy Hooker</v>
       </c>
       <c r="B61" t="str">
-        <v>Chariot du Paddy</v>
+        <v>Аз жаргалгүй биеэ үнэлэгч</v>
       </c>
       <c r="C61" t="str">
         <v/>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Sacre Bleu!</v>
+        <v>The Duke Drops In</v>
       </c>
       <c r="B62" t="str">
-        <v>Sacre Bleu!</v>
+        <v>Гүн унагах</v>
       </c>
       <c r="C62" t="str">
         <v/>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Gendarme Alarm</v>
+        <v>Me Tarzan You Gone!</v>
       </c>
       <c r="B63" t="str">
-        <v>Цагдаагийн дохиолол</v>
+        <v>Би Тарзан чи яв!</v>
       </c>
       <c r="C63" t="str">
         <v/>
@@ -1286,21 +1286,119 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
+        <v>Mona Remy</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Мона Реми</v>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Run Remy Run</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Гүйгээрэй Реми гүйгээрэй</v>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>He Ain't Heavy</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Тэр хүнд биш</v>
+      </c>
+      <c r="C66" t="str">
+        <v/>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>A Bad Trip</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Таагүй аялал</v>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Chariot du Paddy</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Chariot du Paddy</v>
+      </c>
+      <c r="C68" t="str">
+        <v/>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Sacre Bleu!</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Sacre Bleu!</v>
+      </c>
+      <c r="C69" t="str">
+        <v/>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Gendarme Alarm</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Цагдаагийн дохиолол</v>
+      </c>
+      <c r="C70" t="str">
+        <v/>
+      </c>
+      <c r="D70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
         <v>The Getaway</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B71" t="str">
         <v>Зугтаа</v>
       </c>
-      <c r="C64" t="str">
-        <v/>
-      </c>
-      <c r="D64" t="str">
+      <c r="C71" t="str">
+        <v/>
+      </c>
+      <c r="D71" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D64"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D71"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result/test for local 1.xlsx
+++ b/result/test for local 1.xlsx
@@ -421,7 +421,7 @@
         <v>How to Play</v>
       </c>
       <c r="B2" t="str">
-        <v>Хэрхэн тоглох тухай</v>
+        <v>Хэрхэн тогло тухай</v>
       </c>
       <c r="C2" t="str">
         <v/>

--- a/result/test for local 1.xlsx
+++ b/result/test for local 1.xlsx
@@ -463,7 +463,7 @@
         <v>7's IN THIS ORDER</v>
       </c>
       <c r="B5" t="str">
-        <v>ЭНЭ ДАРААЛЛААР 7</v>
+        <v>ЭНЭ ДАРААЛЛААР 9</v>
       </c>
       <c r="C5" t="str">
         <v/>
@@ -491,7 +491,7 @@
         <v>50 Line Chart</v>
       </c>
       <c r="B7" t="str">
-        <v>50 шугаман график</v>
+        <v>5 шугаман график</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -519,7 +519,7 @@
         <v>3D Slots</v>
       </c>
       <c r="B9" t="str">
-        <v>3D слот</v>
+        <v>2D слот</v>
       </c>
       <c r="C9" t="str">
         <v/>

--- a/result/test for local 1.xlsx
+++ b/result/test for local 1.xlsx
@@ -424,10 +424,10 @@
         <v>Хэрхэн тогло тухай</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>Хэрхэн тоглох вэ</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>Correction made to match the phrase structure in the target language and to improve clarity.</v>
       </c>
     </row>
     <row r="3">
@@ -438,10 +438,10 @@
         <v>Цуцлах</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Цуцлах</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>No correction needed.</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +452,10 @@
         <v>Жакпот хийхэд ганц эргүүлэх дутуу</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Жакпот хийхэд ганц эргүүлэх хэдэн үлдэгдэл хийхэд нь нэг эргүүлэх</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Correction made to match the phrase structure in the target language and to improve clarity.</v>
       </c>
     </row>
     <row r="5">
@@ -466,10 +466,10 @@
         <v>ЭНЭ ДАРААЛЛААР 9</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>ЭНЭ ДАРААЛЛААР 7</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>Correction made to match the numeric value in the target language and to improve accuracy.</v>
       </c>
     </row>
     <row r="6">
@@ -480,10 +480,10 @@
         <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>МАКС бет тоглож байхад ямар ч ялалтын мөрийн дээр 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>Correction made to match the phrase structure in the target language and to improve clarity.</v>
       </c>
     </row>
     <row r="7">
@@ -494,10 +494,10 @@
         <v>5 шугаман график</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>50 шугаман график</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>Correction made to match the numeric value in the target language and to improve accuracy.</v>
       </c>
     </row>
     <row r="8">
@@ -508,10 +508,10 @@
         <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>3 эсвэл түүнээс илүү Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>Correction made to match the phrase structure in the target language and to improve clarity.</v>
       </c>
     </row>
     <row r="9">
@@ -522,10 +522,10 @@
         <v>2D слот</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>3D слот</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>Correction made to match the phrase in the target language and to improve accuracy.</v>
       </c>
     </row>
   </sheetData>

--- a/result/test for local 1.xlsx
+++ b/result/test for local 1.xlsx
@@ -424,10 +424,10 @@
         <v>Хэрхэн тогло тухай</v>
       </c>
       <c r="C2" t="str">
-        <v>Хэрхэн тоглох вэ</v>
+        <v>Хэрхэн тоглох вэ?</v>
       </c>
       <c r="D2" t="str">
-        <v>Correction made to match the phrase structure in the target language and to improve clarity.</v>
+        <v>The original translation is a statement, but it should be a question asking how to play.</v>
       </c>
     </row>
     <row r="3">
@@ -452,10 +452,10 @@
         <v>Жакпот хийхэд ганц эргүүлэх дутуу</v>
       </c>
       <c r="C4" t="str">
-        <v>Жакпот хийхэд ганц эргүүлэх хэдэн үлдэгдэл хийхэд нь нэг эргүүлэх</v>
+        <v>Жакпот хийхэд нэг эргүүлэлт хэрэгтэй</v>
       </c>
       <c r="D4" t="str">
-        <v>Correction made to match the phrase structure in the target language and to improve clarity.</v>
+        <v>The original translation has a grammatical error. 'One Spin away from a Jackpot' should be translated as 'Жакпот хийхэд нэг эргүүлэлт хэрэгтэй'.</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>ЭНЭ ДАРААЛЛААР 7</v>
       </c>
       <c r="D5" t="str">
-        <v>Correction made to match the numeric value in the target language and to improve accuracy.</v>
+        <v>The original translation has a numeric mismatch. '7's IN THIS ORDER' should be translated as 'ЭНЭ ДАРААЛЛААР 7'.</v>
       </c>
     </row>
     <row r="6">
@@ -480,10 +480,10 @@
         <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="C6" t="str">
-        <v>МАКС бет тоглож байхад ямар ч ялалтын мөрийн дээр 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
+        <v>MAX бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="D6" t="str">
-        <v>Correction made to match the phrase structure in the target language and to improve clarity.</v>
+        <v>No correction needed.</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         <v>50 шугаман график</v>
       </c>
       <c r="D7" t="str">
-        <v>Correction made to match the numeric value in the target language and to improve accuracy.</v>
+        <v>The original translation has a numeric mismatch. '50 Line Chart' should be translated as '50 шугаман график'.</v>
       </c>
     </row>
     <row r="8">
@@ -508,10 +508,10 @@
         <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
       </c>
       <c r="C8" t="str">
-        <v>3 эсвэл түүнээс илүү Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
+        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно.</v>
       </c>
       <c r="D8" t="str">
-        <v>Correction made to match the phrase structure in the target language and to improve clarity.</v>
+        <v>The original translation has a missing punctuation mark. Added a period at the end of the sentence.</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>3D слот</v>
       </c>
       <c r="D9" t="str">
-        <v>Correction made to match the phrase in the target language and to improve accuracy.</v>
+        <v>The original translation has a numeric mismatch. '3D Slots' should be translated as '3D слот'.</v>
       </c>
     </row>
   </sheetData>
